--- a/data/alertasContratos.xlsx
+++ b/data/alertasContratos.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>id_alerta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="21">
   <si>
     <t>id_contrato</t>
   </si>
@@ -25,9 +22,6 @@
     <t>cliente</t>
   </si>
   <si>
-    <t>activo</t>
-  </si>
-  <si>
     <t>fechaFin</t>
   </si>
   <si>
@@ -37,16 +31,61 @@
     <t>umbral</t>
   </si>
   <si>
-    <t>generada_en</t>
-  </si>
-  <si>
     <t>estado</t>
+  </si>
+  <si>
+    <t>ts_alerta</t>
+  </si>
+  <si>
+    <t>notificado</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio </t>
+  </si>
+  <si>
+    <t>Por vencer</t>
+  </si>
+  <si>
+    <t>2025-11-10 23:37:45</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:02:51</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:29:51</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:29:52</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:29:53</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:29:54</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:30:02</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:30:15</t>
+  </si>
+  <si>
+    <t>enviada 2025-11-11 01:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -99,11 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +469,1097 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45981</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45975</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
